--- a/p_values_df.xlsx
+++ b/p_values_df.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.484557606625519e-09</v>
+        <v>1.895955371467567e-10</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.356180754832887e-30</v>
+        <v>7.222986460066574e-32</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.888398317294063e-31</v>
+        <v>4.380810133541479e-34</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.259018558148317e-34</v>
+        <v>5.904363008139209e-34</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.623615402806096e-24</v>
+        <v>2.874426623586235e-24</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.424191245477518e-20</v>
+        <v>8.065245861147735e-20</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.728303494996613e-44</v>
+        <v>1.747909066924752e-45</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.654636611484395e-39</v>
+        <v>5.183333789342351e-40</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.868558543672114e-25</v>
+        <v>1.202690322887628e-29</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.189670050061358e-39</v>
+        <v>1.534151036757676e-39</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.399710598401883e-33</v>
+        <v>3.318077786684628e-33</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.278155363035053e-33</v>
+        <v>2.275787092297139e-34</v>
       </c>
     </row>
     <row r="14">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.244197555126398e-22</v>
+        <v>5.318889170511569e-22</v>
       </c>
     </row>
     <row r="15">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.489114648970313e-30</v>
+        <v>4.17335261104348e-23</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.454120310097682e-39</v>
+        <v>4.542100101178707e-37</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.278801194978216e-28</v>
+        <v>2.034263544802653e-28</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.411405620367777e-42</v>
+        <v>3.542015148756225e-42</v>
       </c>
     </row>
     <row r="19">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.429597445593813e-38</v>
+        <v>2.08108326078686e-37</v>
       </c>
     </row>
     <row r="20">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.074116355647321e-38</v>
+        <v>2.086902564053713e-37</v>
       </c>
     </row>
     <row r="21">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.322339541805183e-25</v>
+        <v>4.957267427175974e-25</v>
       </c>
     </row>
     <row r="22">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.585413569613988e-35</v>
+        <v>6.017748973624603e-38</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.724100737165767e-47</v>
+        <v>1.399393192392736e-47</v>
       </c>
     </row>
     <row r="24">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.019678113435315e-37</v>
+        <v>5.532937175190544e-36</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.956821341206994e-42</v>
+        <v>8.339292830716267e-41</v>
       </c>
     </row>
     <row r="26">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.624553129817123e-44</v>
+        <v>1.202423930582582e-44</v>
       </c>
     </row>
     <row r="27">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.434942624429382e-30</v>
+        <v>3.145297943929253e-30</v>
       </c>
     </row>
     <row r="28">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.391926019144356e-33</v>
+        <v>9.637865067938638e-33</v>
       </c>
     </row>
     <row r="29">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.83606576474974e-34</v>
+        <v>1.63595974129352e-35</v>
       </c>
     </row>
     <row r="30">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2.596013715591843e-39</v>
+        <v>9.849989375080933e-40</v>
       </c>
     </row>
     <row r="31">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.104846470645829e-20</v>
+        <v>8.312475135913814e-20</v>
       </c>
     </row>
     <row r="32">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.328424762745948e-32</v>
+        <v>1.696080555695164e-31</v>
       </c>
     </row>
     <row r="33">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.779648774060818e-29</v>
+        <v>3.267861657388903e-27</v>
       </c>
     </row>
     <row r="34">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.994631094178467e-34</v>
+        <v>6.601976282575123e-36</v>
       </c>
     </row>
     <row r="35">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.879226096694602e-38</v>
+        <v>1.272112875493919e-36</v>
       </c>
     </row>
     <row r="36">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.376861609643988e-38</v>
+        <v>1.328663025702171e-37</v>
       </c>
     </row>
     <row r="37">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.24236424475267e-43</v>
+        <v>1.238288388328073e-41</v>
       </c>
     </row>
     <row r="38">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.61747029813336e-46</v>
+        <v>7.903774031138401e-45</v>
       </c>
     </row>
     <row r="39">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.269074030419089e-33</v>
+        <v>1.032480665237344e-35</v>
       </c>
     </row>
     <row r="40">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.994622883042681e-42</v>
+        <v>1.031248009836916e-42</v>
       </c>
     </row>
     <row r="41">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.261036855215666e-30</v>
+        <v>5.856168738064733e-28</v>
       </c>
     </row>
     <row r="42">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.948305930592902e-35</v>
+        <v>1.800990726783453e-32</v>
       </c>
     </row>
     <row r="43">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.402605335845669e-33</v>
+        <v>2.124394599141918e-33</v>
       </c>
     </row>
     <row r="44">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.185917190175387e-37</v>
+        <v>2.443034005017753e-36</v>
       </c>
     </row>
     <row r="45">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.423055875249336e-28</v>
+        <v>5.735134404949736e-30</v>
       </c>
     </row>
     <row r="46">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.881545014794537e-39</v>
+        <v>7.888851251638754e-36</v>
       </c>
     </row>
     <row r="47">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.256221264159462e-38</v>
+        <v>1.486818381278506e-33</v>
       </c>
     </row>
     <row r="48">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.265618203884346e-39</v>
+        <v>7.462032013653441e-34</v>
       </c>
     </row>
     <row r="49">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.508523782585359e-25</v>
+        <v>4.951416731943303e-25</v>
       </c>
     </row>
     <row r="50">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.546924989319248e-42</v>
+        <v>1.018428360247186e-39</v>
       </c>
     </row>
     <row r="51">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>6.510998410077987e-43</v>
+        <v>4.657076787628863e-47</v>
       </c>
     </row>
     <row r="52">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.172309245308593e-47</v>
+        <v>5.577285662802531e-47</v>
       </c>
     </row>
     <row r="53">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>5.494723924458439e-44</v>
+        <v>3.706149750894101e-41</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.210352068672024e-34</v>
+        <v>8.297200116143255e-36</v>
       </c>
     </row>
     <row r="55">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.944426529556509e-23</v>
+        <v>9.732728962372518e-23</v>
       </c>
     </row>
     <row r="56">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1.858949322488999e-05</v>
+        <v>6.396617465928862e-06</v>
       </c>
     </row>
     <row r="57">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.0001539598422744212</v>
+        <v>7.482709765582827e-05</v>
       </c>
     </row>
   </sheetData>

--- a/p_values_df.xlsx
+++ b/p_values_df.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.895955371467567e-10</v>
+        <v>3.171464216418456e-09</v>
       </c>
     </row>
     <row r="3">
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.222986460066574e-32</v>
+        <v>7.12745675567031e-29</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.380810133541479e-34</v>
+        <v>8.800949401673852e-34</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.904363008139209e-34</v>
+        <v>3.654424448010859e-33</v>
       </c>
     </row>
     <row r="6">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.874426623586235e-24</v>
+        <v>6.832868700872621e-24</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.065245861147735e-20</v>
+        <v>2.9832060764132e-20</v>
       </c>
     </row>
     <row r="8">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.747909066924752e-45</v>
+        <v>5.403976519451658e-44</v>
       </c>
     </row>
     <row r="9">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.183333789342351e-40</v>
+        <v>1.440768536345507e-41</v>
       </c>
     </row>
     <row r="10">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.202690322887628e-29</v>
+        <v>2.616835023836694e-29</v>
       </c>
     </row>
     <row r="11">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.534151036757676e-39</v>
+        <v>3.131477335883232e-34</v>
       </c>
     </row>
     <row r="12">
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.318077786684628e-33</v>
+        <v>2.707633624425391e-31</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.275787092297139e-34</v>
+        <v>5.875129081373263e-32</v>
       </c>
     </row>
     <row r="14">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.318889170511569e-22</v>
+        <v>8.516939334620502e-22</v>
       </c>
     </row>
     <row r="15">
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.17335261104348e-23</v>
+        <v>7.569303379299497e-23</v>
       </c>
     </row>
     <row r="16">
@@ -593,7 +593,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.542100101178707e-37</v>
+        <v>9.026372590203475e-38</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.034263544802653e-28</v>
+        <v>2.656956381133143e-28</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.542015148756225e-42</v>
+        <v>1.272347026096262e-40</v>
       </c>
     </row>
     <row r="19">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.08108326078686e-37</v>
+        <v>4.989200879299134e-37</v>
       </c>
     </row>
     <row r="20">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.086902564053713e-37</v>
+        <v>2.305344554491526e-34</v>
       </c>
     </row>
     <row r="21">
@@ -643,7 +643,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.957267427175974e-25</v>
+        <v>1.153837767247179e-24</v>
       </c>
     </row>
     <row r="22">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.017748973624603e-38</v>
+        <v>2.013929595994958e-36</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.399393192392736e-47</v>
+        <v>1.809259109194886e-45</v>
       </c>
     </row>
     <row r="24">
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.532937175190544e-36</v>
+        <v>8.012349720186608e-35</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.339292830716267e-41</v>
+        <v>6.360354976392933e-41</v>
       </c>
     </row>
     <row r="26">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.202423930582582e-44</v>
+        <v>2.492425327169398e-43</v>
       </c>
     </row>
     <row r="27">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.145297943929253e-30</v>
+        <v>3.877174924991172e-32</v>
       </c>
     </row>
     <row r="28">
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.637865067938638e-33</v>
+        <v>2.218447163687133e-32</v>
       </c>
     </row>
     <row r="29">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.63595974129352e-35</v>
+        <v>2.408153666584939e-35</v>
       </c>
     </row>
     <row r="30">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.849989375080933e-40</v>
+        <v>6.559774151665166e-39</v>
       </c>
     </row>
     <row r="31">
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.312475135913814e-20</v>
+        <v>1.307665970531418e-23</v>
       </c>
     </row>
     <row r="32">
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.696080555695164e-31</v>
+        <v>6.280485845687156e-29</v>
       </c>
     </row>
     <row r="33">
@@ -763,7 +763,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.267861657388903e-27</v>
+        <v>4.760403010778068e-30</v>
       </c>
     </row>
     <row r="34">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.601976282575123e-36</v>
+        <v>1.859038942304964e-33</v>
       </c>
     </row>
     <row r="35">
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.272112875493919e-36</v>
+        <v>5.22878404270161e-36</v>
       </c>
     </row>
     <row r="36">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.328663025702171e-37</v>
+        <v>6.617462720739735e-37</v>
       </c>
     </row>
     <row r="37">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.238288388328073e-41</v>
+        <v>3.529734046272536e-40</v>
       </c>
     </row>
     <row r="38">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.903774031138401e-45</v>
+        <v>3.662379629358266e-45</v>
       </c>
     </row>
     <row r="39">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.032480665237344e-35</v>
+        <v>4.302323871497702e-34</v>
       </c>
     </row>
     <row r="40">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.031248009836916e-42</v>
+        <v>2.852139648627557e-43</v>
       </c>
     </row>
     <row r="41">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.856168738064733e-28</v>
+        <v>6.033943696592842e-28</v>
       </c>
     </row>
     <row r="42">
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.800990726783453e-32</v>
+        <v>7.165754310939299e-30</v>
       </c>
     </row>
     <row r="43">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.124394599141918e-33</v>
+        <v>3.933920066566521e-32</v>
       </c>
     </row>
     <row r="44">
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.443034005017753e-36</v>
+        <v>2.645797851826864e-37</v>
       </c>
     </row>
     <row r="45">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.735134404949736e-30</v>
+        <v>2.216881825288591e-32</v>
       </c>
     </row>
     <row r="46">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.888851251638754e-36</v>
+        <v>2.073193975781784e-37</v>
       </c>
     </row>
     <row r="47">
@@ -903,7 +903,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.486818381278506e-33</v>
+        <v>5.359965366244893e-36</v>
       </c>
     </row>
     <row r="48">
@@ -913,7 +913,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.462032013653441e-34</v>
+        <v>1.588191275217874e-42</v>
       </c>
     </row>
     <row r="49">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.951416731943303e-25</v>
+        <v>1.169076563114221e-24</v>
       </c>
     </row>
     <row r="50">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.018428360247186e-39</v>
+        <v>5.325733680317098e-41</v>
       </c>
     </row>
     <row r="51">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.657076787628863e-47</v>
+        <v>4.473708237057788e-43</v>
       </c>
     </row>
     <row r="52">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5.577285662802531e-47</v>
+        <v>6.311207708666809e-50</v>
       </c>
     </row>
     <row r="53">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.706149750894101e-41</v>
+        <v>1.376230208237872e-40</v>
       </c>
     </row>
     <row r="54">
@@ -973,7 +973,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>8.297200116143255e-36</v>
+        <v>5.276055540806254e-38</v>
       </c>
     </row>
     <row r="55">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9.732728962372518e-23</v>
+        <v>2.27780326516955e-25</v>
       </c>
     </row>
     <row r="56">
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>6.396617465928862e-06</v>
+        <v>9.951921507428899e-08</v>
       </c>
     </row>
     <row r="57">
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.482709765582827e-05</v>
+        <v>1.490025888811916e-05</v>
       </c>
     </row>
   </sheetData>
